--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0A3D46-3AF1-E743-8042-1F96286ADAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="1000" yWindow="700" windowWidth="26040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -77,20 +55,19 @@
     <t>10.83 hour</t>
   </si>
   <si>
-    <t>8.35 hour</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>16245</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
       </rPr>
       <t>元</t>
     </r>
@@ -99,39 +76,43 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (paid)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.35 hour</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>12525</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
       </rPr>
       <t>元</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="[h]&quot;h&quot;\ m&quot;m&quot;"/>
-    <numFmt numFmtId="177" formatCode="[m]&quot;m&quot;"/>
-    <numFmt numFmtId="178" formatCode="[h]&quot;h&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="[h]&quot;h&quot; m&quot;m&quot;"/>
+    <numFmt numFmtId="60" formatCode="[m]&quot;m&quot;"/>
+    <numFmt numFmtId="61" formatCode="[h]&quot;h&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -140,28 +121,22 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="PMingLiU"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Wawati TC"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="PMingLiU"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,21 +178,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -226,123 +186,119 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -544,7 +500,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -562,7 +518,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -591,7 +547,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -616,7 +572,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +597,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,7 +622,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -691,7 +647,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +672,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,7 +697,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,7 +722,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,7 +747,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -804,15 +760,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -829,7 +779,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -847,7 +797,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +822,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +847,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +872,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +897,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +922,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +947,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +972,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +997,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +1022,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,15 +1035,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1107,7 +1051,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1125,7 +1069,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1098,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1179,7 +1123,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1148,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1173,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1198,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1223,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1248,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1273,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1298,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,1013 +1311,1002 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="5" width="12.6719" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>44811</v>
       </c>
       <c r="B2" s="5">
-        <v>3.901388888888889</v>
+        <v>4.901388888888889</v>
       </c>
       <c r="C2" s="5">
-        <v>3.9986111111111109</v>
+        <v>4.998611111111111</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
-        <v>9.7222222222221877E-2</v>
+        <f>C2-B2</f>
+        <v>0.09722222222222222</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>3.8347222222222221</v>
+        <v>4.834722222222222</v>
       </c>
       <c r="C3" s="5">
-        <v>3.869444444444444</v>
+        <v>4.869444444444444</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" si="0"/>
-        <v>3.4722222222221877E-2</v>
+        <f>C3-B3</f>
+        <v>0.03472222222222222</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>44815</v>
       </c>
       <c r="B4" s="5">
-        <v>3.645833333333333</v>
+        <v>4.645833333333333</v>
       </c>
       <c r="C4" s="5">
-        <v>3.6944444444444451</v>
+        <v>4.694444444444445</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8611111111112049E-2</v>
+        <f>C4-B4</f>
+        <v>0.04861111111111111</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>44821</v>
       </c>
       <c r="B5" s="5">
-        <v>3.875</v>
+        <v>4.875</v>
       </c>
       <c r="C5" s="5">
-        <v>3.941666666666666</v>
+        <v>4.941666666666666</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>6.6666666666665986E-2</v>
+        <f>C5-B5</f>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>44824</v>
       </c>
       <c r="B6" s="5">
-        <v>3.9375</v>
+        <v>4.9375</v>
       </c>
       <c r="C6" s="5">
-        <v>3.979166666666667</v>
+        <v>4.979166666666667</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666963E-2</v>
+        <f>C6-B6</f>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>44828</v>
       </c>
       <c r="B7" s="5">
-        <v>3.9444444444444451</v>
+        <v>4.944444444444445</v>
       </c>
       <c r="C7" s="5">
-        <v>3.9861111111111112</v>
+        <v>4.986111111111111</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666075E-2</v>
+        <f>C7-B7</f>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>44829</v>
       </c>
       <c r="B8" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C8" s="5">
-        <v>3.8062499999999999</v>
+        <v>4.80625</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>9.7916666666666874E-2</v>
+        <f>C8-B8</f>
+        <v>0.09791666666666667</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s" s="2">
         <v>5</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>44836</v>
       </c>
       <c r="B10" s="5">
-        <v>3.416666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="C10" s="5">
-        <v>3.5708333333333329</v>
+        <v>4.570833333333333</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" ref="D10:D18" si="1">C10-B10</f>
-        <v>0.1541666666666659</v>
+        <f>C10-B10</f>
+        <v>0.1541666666666667</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>44836</v>
       </c>
       <c r="B11" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C11" s="5">
-        <v>3.7777777777777781</v>
+        <v>4.777777777777778</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="1"/>
-        <v>6.9444444444445086E-2</v>
+        <f>C11-B11</f>
+        <v>0.06944444444444445</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>44842</v>
       </c>
       <c r="B12" s="5">
-        <v>3.833333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="C12" s="5">
-        <v>3.895833333333333</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <f>C12-B12</f>
+        <v>0.0625</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>44843</v>
       </c>
       <c r="B13" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C13" s="5">
-        <v>3.7743055555555549</v>
+        <v>4.774305555555555</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="1"/>
-        <v>6.5972222222221877E-2</v>
+        <f>C13-B13</f>
+        <v>0.06597222222222222</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>44856</v>
       </c>
       <c r="B14" s="5">
-        <v>3.933333333333334</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="C14" s="5">
-        <v>3.9715277777777782</v>
+        <v>4.971527777777778</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="1"/>
-        <v>3.8194444444444198E-2</v>
+        <f>C14-B14</f>
+        <v>0.03819444444444445</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>44857</v>
       </c>
       <c r="B15" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C15" s="5">
-        <v>3.7833333333333332</v>
+        <v>4.783333333333333</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="1"/>
-        <v>7.5000000000000178E-2</v>
+        <f>C15-B15</f>
+        <v>0.075</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4">
         <v>44863</v>
       </c>
       <c r="B16" s="5">
-        <v>3.4493055555555561</v>
+        <v>4.449305555555555</v>
       </c>
       <c r="C16" s="5">
-        <v>3.4930555555555549</v>
+        <v>4.493055555555555</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="1"/>
-        <v>4.3749999999998845E-2</v>
+        <f>C16-B16</f>
+        <v>0.04375</v>
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4">
         <v>44863</v>
       </c>
       <c r="B17" s="5">
-        <v>3.665972222222222</v>
+        <v>4.665972222222222</v>
       </c>
       <c r="C17" s="5">
-        <v>3.7173611111111109</v>
+        <v>4.717361111111111</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="1"/>
-        <v>5.1388888888888928E-2</v>
+        <f>C17-B17</f>
+        <v>0.05138888888888889</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4">
         <v>44863</v>
       </c>
       <c r="B18" s="5">
-        <v>3.722916666666666</v>
+        <v>4.722916666666666</v>
       </c>
       <c r="C18" s="5">
-        <v>3.8041666666666671</v>
+        <v>4.804166666666667</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="1"/>
-        <v>8.1250000000001155E-2</v>
+        <f>C18-B18</f>
+        <v>0.08125</v>
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" t="s" s="9">
         <v>6</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4">
         <v>44868</v>
       </c>
       <c r="B20" s="5">
-        <v>3.943055555555556</v>
+        <v>4.943055555555556</v>
       </c>
       <c r="C20" s="5">
-        <v>3.990277777777778</v>
+        <v>4.990277777777778</v>
       </c>
       <c r="D20" s="6">
         <f>C20-B20</f>
-        <v>4.7222222222222054E-2</v>
+        <v>0.04722222222222222</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4">
         <v>44869</v>
       </c>
       <c r="B21" s="5">
-        <v>3.3597222222222221</v>
+        <v>4.359722222222222</v>
       </c>
       <c r="C21" s="5">
-        <v>3.401388888888889</v>
+        <v>4.401388888888889</v>
       </c>
       <c r="D21" s="8">
         <f>C21-B21</f>
-        <v>4.1666666666666963E-2</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>44870</v>
       </c>
       <c r="B22" s="5">
-        <v>3.916666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="C22" s="10">
         <v>1.002777777777778</v>
       </c>
       <c r="D22" s="5">
         <f>C22-B22</f>
-        <v>-2.9138888888888888</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4">
         <v>44871</v>
       </c>
       <c r="B23" s="5">
-        <v>3.7152777777777781</v>
+        <v>4.715277777777778</v>
       </c>
       <c r="C23" s="10">
         <v>0.8041666666666667</v>
       </c>
       <c r="D23" s="5">
         <f>C23*24-B23</f>
-        <v>15.584722222222222</v>
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4">
         <v>44977</v>
       </c>
       <c r="B24" s="5">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="C24" s="5">
-        <v>3.8208333333333329</v>
+        <v>4.820833333333333</v>
       </c>
       <c r="D24" s="6">
         <f>C24-B24</f>
-        <v>7.083333333333286E-2</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s" s="2">
         <v>7</v>
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4">
         <v>44991</v>
       </c>
       <c r="B26" s="5">
-        <v>3.8888888888888888</v>
+        <v>4.888888888888889</v>
       </c>
       <c r="C26" s="5">
-        <v>3.9930555555555549</v>
+        <v>4.993055555555555</v>
       </c>
       <c r="D26" s="6">
         <f>C26-B26</f>
-        <v>0.10416666666666607</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4">
         <v>44994</v>
       </c>
       <c r="B27" s="5">
-        <v>3.875</v>
+        <v>4.875</v>
       </c>
       <c r="C27" s="5">
-        <v>3.958333333333333</v>
+        <v>4.958333333333333</v>
       </c>
       <c r="D27" s="8">
         <f>C27-B27</f>
-        <v>8.3333333333333037E-2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4">
         <v>45004</v>
       </c>
       <c r="B28" s="5">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="C28" s="5">
-        <v>3.843055555555555</v>
+        <v>4.843055555555556</v>
       </c>
       <c r="D28" s="6">
         <f>C28-B28</f>
-        <v>9.3055555555555003E-2</v>
+        <v>0.09305555555555556</v>
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4">
         <v>45011</v>
       </c>
       <c r="B29" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C29" s="5">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="D29" s="6">
         <f>C29-B29</f>
-        <v>9.1666666666666785E-2</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4">
         <v>45018</v>
       </c>
       <c r="B30" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C30" s="5">
-        <v>3.8034722222222221</v>
+        <v>4.803472222222222</v>
       </c>
       <c r="D30" s="6">
         <f>C30-B30</f>
-        <v>9.5138888888889106E-2</v>
+        <v>0.09513888888888888</v>
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="6">
-        <v>0.46736111111111112</v>
-      </c>
-      <c r="E31" s="2" t="s">
+        <v>0.4673611111111111</v>
+      </c>
+      <c r="E31" t="s" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4">
         <v>45032</v>
       </c>
       <c r="B32" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C32" s="5">
-        <v>3.7777777777777781</v>
+        <v>4.777777777777778</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" ref="D32:D38" si="2">C32-B32</f>
-        <v>6.9444444444445086E-2</v>
+        <f>C32-B32</f>
+        <v>0.06944444444444445</v>
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4">
         <v>45039</v>
       </c>
       <c r="B33" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C33" s="5">
-        <v>3.802083333333333</v>
+        <v>4.802083333333333</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="2"/>
-        <v>9.375E-2</v>
+        <f>C33-B33</f>
+        <v>0.09375</v>
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4">
         <v>45046</v>
       </c>
       <c r="B34" s="5">
-        <v>3.7152777777777781</v>
+        <v>4.715277777777778</v>
       </c>
       <c r="C34" s="5">
-        <v>3.8152777777777782</v>
+        <v>4.815277777777778</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="2"/>
-        <v>0.10000000000000009</v>
+        <f>C34-B34</f>
+        <v>0.1</v>
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4">
         <v>45060</v>
       </c>
       <c r="B35" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C35" s="5">
-        <v>3.8111111111111109</v>
+        <v>4.811111111111111</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="2"/>
-        <v>0.10277777777777786</v>
+        <f>C35-B35</f>
+        <v>0.1027777777777778</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4">
         <v>45067</v>
       </c>
       <c r="B36" s="5">
-        <v>3.71875</v>
+        <v>4.71875</v>
       </c>
       <c r="C36" s="5">
-        <v>3.791666666666667</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="2"/>
-        <v>7.2916666666666963E-2</v>
+        <f>C36-B36</f>
+        <v>0.07291666666666667</v>
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4">
         <v>45084</v>
       </c>
       <c r="B37" s="5">
-        <v>3.7520833333333332</v>
+        <v>4.752083333333333</v>
       </c>
       <c r="C37" s="5">
-        <v>3.807638888888889</v>
+        <v>4.807638888888889</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="2"/>
-        <v>5.5555555555555802E-2</v>
+        <f>C37-B37</f>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="11">
         <v>45096</v>
       </c>
       <c r="B38" s="5">
-        <v>3.7152777777777781</v>
+        <v>4.715277777777778</v>
       </c>
       <c r="C38" s="5">
-        <v>3.786111111111111</v>
+        <v>4.786111111111111</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="2"/>
-        <v>7.083333333333286E-2</v>
+        <f>C38-B38</f>
+        <v>0.07083333333333333</v>
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s" s="2">
         <v>9</v>
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4">
         <v>45100</v>
       </c>
       <c r="B40" s="5">
-        <v>3.0402777777777779</v>
+        <v>4.040277777777778</v>
       </c>
       <c r="C40" s="5">
-        <v>3.0798611111111112</v>
+        <v>4.079861111111111</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" ref="D40:D45" si="3">C40-B40</f>
-        <v>3.9583333333333304E-2</v>
+        <f>C40-B40</f>
+        <v>0.03958333333333333</v>
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4">
         <v>45108</v>
       </c>
       <c r="B41" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C41" s="5">
-        <v>3.8402777777777781</v>
+        <v>4.840277777777778</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="3"/>
-        <v>0.13194444444444509</v>
+        <f>C41-B41</f>
+        <v>0.1319444444444444</v>
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4">
         <v>45116</v>
       </c>
       <c r="B42" s="5">
-        <v>3.729166666666667</v>
+        <v>4.729166666666667</v>
       </c>
       <c r="C42" s="5">
-        <v>3.8125</v>
+        <v>4.8125</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333037E-2</v>
+        <f>C42-B42</f>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4">
         <v>45138</v>
       </c>
       <c r="B43" s="5">
-        <v>3.729166666666667</v>
+        <v>4.729166666666667</v>
       </c>
       <c r="C43" s="5">
-        <v>3.8298611111111112</v>
+        <v>4.829861111111111</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="3"/>
-        <v>0.1006944444444442</v>
+        <f>C43-B43</f>
+        <v>0.1006944444444444</v>
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4">
         <v>45158</v>
       </c>
       <c r="B44" s="5">
-        <v>3.71875</v>
+        <v>4.71875</v>
       </c>
       <c r="C44" s="5">
-        <v>3.7951388888888888</v>
+        <v>4.795138888888889</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="3"/>
-        <v>7.638888888888884E-2</v>
+        <f>C44-B44</f>
+        <v>0.0763888888888889</v>
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4">
         <v>45165</v>
       </c>
       <c r="B45" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C45" s="5">
-        <v>3.7743055555555549</v>
+        <v>4.774305555555555</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="3"/>
-        <v>6.5972222222221877E-2</v>
+        <f>C45-B45</f>
+        <v>0.06597222222222222</v>
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="6">
-        <v>0.49791666666666667</v>
-      </c>
-      <c r="E46" s="2" t="s">
+        <v>0.4979166666666667</v>
+      </c>
+      <c r="E46" t="s" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4">
         <v>45179</v>
       </c>
       <c r="B47" s="5">
-        <v>3.729166666666667</v>
+        <v>4.729166666666667</v>
       </c>
       <c r="C47" s="5">
-        <v>3.802083333333333</v>
+        <v>4.802083333333333</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" ref="D47:D54" si="4">C47-B47</f>
-        <v>7.2916666666666075E-2</v>
+        <f>C47-B47</f>
+        <v>0.07291666666666667</v>
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4">
         <v>45186</v>
       </c>
       <c r="B48" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C48" s="5">
-        <v>3.7986111111111112</v>
+        <v>4.798611111111111</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="4"/>
-        <v>9.0277777777778123E-2</v>
+        <f>C48-B48</f>
+        <v>0.09027777777777778</v>
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4">
         <v>45193</v>
       </c>
       <c r="B49" s="5">
-        <v>3.7152777777777781</v>
+        <v>4.715277777777778</v>
       </c>
       <c r="C49" s="5">
-        <v>3.807638888888889</v>
+        <v>4.807638888888889</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="4"/>
-        <v>9.2361111111110894E-2</v>
+        <f>C49-B49</f>
+        <v>0.09236111111111112</v>
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4">
         <v>45200</v>
       </c>
       <c r="B50" s="5">
-        <v>3.71875</v>
+        <v>4.71875</v>
       </c>
       <c r="C50" s="5">
-        <v>3.8090277777777781</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="4"/>
-        <v>9.0277777777778123E-2</v>
+        <f>C50-B50</f>
+        <v>0.09027777777777778</v>
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4">
         <v>45222</v>
       </c>
       <c r="B51" s="5">
-        <v>3.833333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="C51" s="5">
-        <v>3.936805555555555</v>
+        <v>4.936805555555556</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="4"/>
-        <v>0.10347222222222197</v>
+        <f>C51-B51</f>
+        <v>0.1034722222222222</v>
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4">
         <v>45224</v>
       </c>
       <c r="B52" s="5">
-        <v>3.875</v>
+        <v>4.875</v>
       </c>
       <c r="C52" s="5">
-        <v>3.916666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="4"/>
-        <v>4.1666666666666963E-2</v>
+        <f>C52-B52</f>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4">
         <v>45241</v>
       </c>
       <c r="B53" s="5">
-        <v>3.8715277777777781</v>
+        <v>4.871527777777778</v>
       </c>
       <c r="C53" s="5">
-        <v>3.916666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="4"/>
-        <v>4.513888888888884E-2</v>
+        <f>C53-B53</f>
+        <v>0.04513888888888889</v>
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4">
         <v>45242</v>
       </c>
       <c r="B54" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C54" s="5">
-        <v>3.791666666666667</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333925E-2</v>
+        <f>C54-B54</f>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="2" t="s">
+      <c r="D55" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" t="s" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4">
         <v>45263</v>
       </c>
       <c r="B56" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C56" s="5">
-        <v>3.802083333333333</v>
+        <v>4.802083333333333</v>
       </c>
       <c r="D56" s="6">
         <f>C56-B56</f>
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4">
         <v>45275</v>
       </c>
       <c r="B57" s="5">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="C57" s="5">
-        <v>3.8472222222222219</v>
+        <v>4.847222222222222</v>
       </c>
       <c r="D57" s="6">
         <f>C57-B57</f>
-        <v>9.7222222222221877E-2</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4">
         <v>45305</v>
       </c>
       <c r="B58" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C58" s="5">
-        <v>3.7673611111111112</v>
+        <v>4.767361111111111</v>
       </c>
       <c r="D58" s="6">
         <f>C58-B58</f>
-        <v>5.9027777777778123E-2</v>
+        <v>0.05902777777777778</v>
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4">
         <v>45312</v>
       </c>
       <c r="B59" s="5">
-        <v>3.354166666666667</v>
+        <v>4.354166666666667</v>
       </c>
       <c r="C59" s="5">
-        <v>3.395833333333333</v>
+        <v>4.395833333333333</v>
       </c>
       <c r="D59" s="8">
         <f>C59-B59</f>
-        <v>4.1666666666666075E-2</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4">
         <v>45312</v>
       </c>
       <c r="B60" s="5">
-        <v>3.666666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="C60" s="5">
-        <v>3.7430555555555549</v>
+        <v>4.743055555555555</v>
       </c>
       <c r="D60" s="6">
         <f>C60-B60</f>
-        <v>7.6388888888887951E-2</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E61" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4">
         <v>45403</v>
       </c>
       <c r="B62" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C62" s="5">
-        <v>3.8013888888888889</v>
+        <v>4.801388888888889</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" ref="D62:D67" si="5">C62-B62</f>
-        <v>9.3055555555555891E-2</v>
+        <f>C62-B62</f>
+        <v>0.09305555555555556</v>
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4">
         <v>45410</v>
       </c>
       <c r="B63" s="5">
-        <v>3.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="C63" s="5">
-        <v>3.802083333333333</v>
+        <v>4.802083333333333</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="5"/>
-        <v>9.375E-2</v>
+        <f>C63-B63</f>
+        <v>0.09375</v>
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4">
         <v>45414</v>
       </c>
       <c r="B64" s="5">
-        <v>3.71875</v>
+        <v>4.71875</v>
       </c>
       <c r="C64" s="5">
-        <v>3.739583333333333</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="5"/>
-        <v>2.0833333333333037E-2</v>
+        <f>C64-B64</f>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4">
         <v>45419</v>
       </c>
@@ -2381,15 +2314,15 @@
         <v>45419.729166666664</v>
       </c>
       <c r="C65" s="5">
-        <v>45419.768750000003</v>
+        <v>45419.76875</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="5"/>
-        <v>3.9583333338669036E-2</v>
+        <f>C65-B65</f>
+        <v>0.03958333333885228</v>
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="4">
         <v>45421</v>
       </c>
@@ -2400,184 +2333,195 @@
         <v>45421.78125</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="5"/>
-        <v>6.1111111113859806E-2</v>
+        <f>C66-B66</f>
+        <v>0.06111111111111111</v>
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="13">
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="12">
         <v>45424</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>45424.708333333336</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="13">
         <v>45424.747916666667</v>
       </c>
-      <c r="D67" s="15">
-        <f t="shared" si="5"/>
-        <v>3.9583333331393078E-2</v>
-      </c>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="18" t="s">
+      <c r="D67" s="14">
+        <f>C67-B67</f>
+        <v>0.03958333333333333</v>
+      </c>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s" s="17">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="19">
+    <row r="69" ht="16" customHeight="1">
+      <c r="A69" s="18">
         <v>45463</v>
       </c>
-      <c r="B69" s="20">
-        <v>0.875</v>
-      </c>
-      <c r="C69" s="20">
-        <v>0.95694444444444438</v>
-      </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="19">
+      <c r="B69" s="19">
+        <v>1.875</v>
+      </c>
+      <c r="C69" s="19">
+        <v>1.956944444444444</v>
+      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="18">
         <v>45468</v>
       </c>
-      <c r="B70" s="20">
-        <v>0.875</v>
-      </c>
-      <c r="C70" s="20">
-        <v>0.92222222222222217</v>
-      </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="19">
+      <c r="B70" s="19">
+        <v>1.875</v>
+      </c>
+      <c r="C70" s="19">
+        <v>1.922222222222222</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="18">
         <v>45490</v>
       </c>
-      <c r="B71" s="20">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C71" s="20">
-        <v>0.84861111111111109</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="19">
+      <c r="B71" s="19">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="C71" s="19">
+        <v>1.848611111111111</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="18">
         <v>45498</v>
       </c>
-      <c r="B72" s="20">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C72" s="20">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="19">
+      <c r="B72" s="19">
+        <v>1.854166666666667</v>
+      </c>
+      <c r="C72" s="19">
+        <v>1.895833333333333</v>
+      </c>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="18">
         <v>45504</v>
       </c>
-      <c r="B73" s="20">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C73" s="21">
-        <v>0.90763888888888899</v>
-      </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="B73" s="19">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="C73" s="19">
+        <v>1.907638888888889</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="18">
+        <v>45511</v>
+      </c>
+      <c r="B74" s="19">
+        <v>45512.627083333333</v>
+      </c>
+      <c r="C74" s="19">
+        <v>45512.68125</v>
+      </c>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="18">
+        <v>45512</v>
+      </c>
+      <c r="B75" s="19">
+        <v>45512.420833333330</v>
+      </c>
+      <c r="C75" s="19">
+        <v>45512.526388888888</v>
+      </c>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A7BFA-46BC-4C41-8A69-B8A2A5C49DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-31820" yWindow="2600" windowWidth="24880" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +82,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>16245</t>
     </r>
@@ -68,6 +91,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>元</t>
     </r>
@@ -76,6 +101,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (paid)</t>
     </r>
@@ -89,6 +115,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>12525</t>
     </r>
@@ -97,6 +124,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>元</t>
     </r>
@@ -105,14 +134,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="[h]&quot;h&quot; m&quot;m&quot;"/>
-    <numFmt numFmtId="60" formatCode="[m]&quot;m&quot;"/>
-    <numFmt numFmtId="61" formatCode="[h]&quot;h&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="[h]&quot;h&quot;\ m&quot;m&quot;"/>
+    <numFmt numFmtId="177" formatCode="[m]&quot;m&quot;"/>
+    <numFmt numFmtId="178" formatCode="[h]&quot;h&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -121,22 +149,28 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Wawati TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -208,97 +242,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -500,7 +553,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -518,7 +571,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -547,7 +600,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -572,7 +625,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -597,7 +650,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -622,7 +675,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -647,7 +700,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -672,7 +725,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -697,7 +750,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -722,7 +775,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,7 +800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,9 +813,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -779,7 +838,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -797,7 +856,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +881,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,7 +906,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +931,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +956,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +981,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +1006,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +1031,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +1056,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1081,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1035,9 +1094,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1051,7 +1116,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1069,7 +1134,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +1163,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1188,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1213,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1238,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1263,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1288,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1313,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1273,7 +1338,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1298,7 +1363,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,76 +1376,85 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="L87" sqref="L86:L87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="12.6719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>44811</v>
       </c>
       <c r="B2" s="5">
-        <v>4.901388888888889</v>
+        <v>4.9013888888888886</v>
       </c>
       <c r="C2" s="5">
-        <v>4.998611111111111</v>
+        <v>4.9986111111111109</v>
       </c>
       <c r="D2" s="6">
-        <f>C2-B2</f>
-        <v>0.09722222222222222</v>
+        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
+        <v>9.7222222222222321E-2</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>4.834722222222222</v>
+        <v>4.8347222222222221</v>
       </c>
       <c r="C3" s="5">
-        <v>4.869444444444444</v>
+        <v>4.8694444444444436</v>
       </c>
       <c r="D3" s="7">
-        <f>C3-B3</f>
-        <v>0.03472222222222222</v>
+        <f t="shared" si="0"/>
+        <v>3.4722222222221433E-2</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>44815</v>
       </c>
@@ -1388,15 +1462,15 @@
         <v>4.645833333333333</v>
       </c>
       <c r="C4" s="5">
-        <v>4.694444444444445</v>
+        <v>4.6944444444444446</v>
       </c>
       <c r="D4" s="6">
-        <f>C4-B4</f>
-        <v>0.04861111111111111</v>
+        <f t="shared" si="0"/>
+        <v>4.8611111111111605E-2</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>44821</v>
       </c>
@@ -1404,15 +1478,15 @@
         <v>4.875</v>
       </c>
       <c r="C5" s="5">
-        <v>4.941666666666666</v>
+        <v>4.9416666666666664</v>
       </c>
       <c r="D5" s="6">
-        <f>C5-B5</f>
-        <v>0.06666666666666667</v>
+        <f t="shared" si="0"/>
+        <v>6.666666666666643E-2</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>44824</v>
       </c>
@@ -1423,28 +1497,28 @@
         <v>4.979166666666667</v>
       </c>
       <c r="D6" s="8">
-        <f>C6-B6</f>
-        <v>0.04166666666666666</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666963E-2</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>44828</v>
       </c>
       <c r="B7" s="5">
-        <v>4.944444444444445</v>
+        <v>4.9444444444444446</v>
       </c>
       <c r="C7" s="5">
-        <v>4.986111111111111</v>
+        <v>4.9861111111111107</v>
       </c>
       <c r="D7" s="8">
-        <f>C7-B7</f>
-        <v>0.04166666666666666</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666075E-2</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>44829</v>
       </c>
@@ -1452,24 +1526,24 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C8" s="5">
-        <v>4.80625</v>
+        <v>4.8062500000000004</v>
       </c>
       <c r="D8" s="6">
-        <f>C8-B8</f>
-        <v>0.09791666666666667</v>
+        <f t="shared" si="0"/>
+        <v>9.7916666666667318E-2</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>44836</v>
       </c>
@@ -1477,15 +1551,15 @@
         <v>4.416666666666667</v>
       </c>
       <c r="C10" s="5">
-        <v>4.570833333333333</v>
+        <v>4.5708333333333329</v>
       </c>
       <c r="D10" s="6">
-        <f>C10-B10</f>
-        <v>0.1541666666666667</v>
+        <f t="shared" ref="D10:D18" si="1">C10-B10</f>
+        <v>0.1541666666666659</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>44836</v>
       </c>
@@ -1493,15 +1567,15 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C11" s="5">
-        <v>4.777777777777778</v>
+        <v>4.7777777777777777</v>
       </c>
       <c r="D11" s="6">
-        <f>C11-B11</f>
-        <v>0.06944444444444445</v>
+        <f t="shared" si="1"/>
+        <v>6.9444444444444642E-2</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>44842</v>
       </c>
@@ -1512,12 +1586,12 @@
         <v>4.895833333333333</v>
       </c>
       <c r="D12" s="6">
-        <f>C12-B12</f>
-        <v>0.0625</v>
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>44843</v>
       </c>
@@ -1525,31 +1599,31 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C13" s="5">
-        <v>4.774305555555555</v>
+        <v>4.7743055555555554</v>
       </c>
       <c r="D13" s="6">
-        <f>C13-B13</f>
-        <v>0.06597222222222222</v>
+        <f t="shared" si="1"/>
+        <v>6.5972222222222321E-2</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>44856</v>
       </c>
       <c r="B14" s="5">
-        <v>4.933333333333334</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="C14" s="5">
-        <v>4.971527777777778</v>
+        <v>4.9715277777777782</v>
       </c>
       <c r="D14" s="7">
-        <f>C14-B14</f>
-        <v>0.03819444444444445</v>
+        <f t="shared" si="1"/>
+        <v>3.8194444444444642E-2</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>44857</v>
       </c>
@@ -1557,31 +1631,31 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C15" s="5">
-        <v>4.783333333333333</v>
+        <v>4.7833333333333332</v>
       </c>
       <c r="D15" s="6">
-        <f>C15-B15</f>
-        <v>0.075</v>
+        <f t="shared" si="1"/>
+        <v>7.5000000000000178E-2</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>44863</v>
       </c>
       <c r="B16" s="5">
-        <v>4.449305555555555</v>
+        <v>4.4493055555555552</v>
       </c>
       <c r="C16" s="5">
-        <v>4.493055555555555</v>
+        <v>4.4930555555555554</v>
       </c>
       <c r="D16" s="6">
-        <f>C16-B16</f>
-        <v>0.04375</v>
+        <f t="shared" si="1"/>
+        <v>4.3750000000000178E-2</v>
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>44863</v>
       </c>
@@ -1589,72 +1663,72 @@
         <v>4.665972222222222</v>
       </c>
       <c r="C17" s="5">
-        <v>4.717361111111111</v>
+        <v>4.7173611111111109</v>
       </c>
       <c r="D17" s="6">
-        <f>C17-B17</f>
-        <v>0.05138888888888889</v>
+        <f t="shared" si="1"/>
+        <v>5.1388888888888928E-2</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>44863</v>
       </c>
       <c r="B18" s="5">
-        <v>4.722916666666666</v>
+        <v>4.7229166666666664</v>
       </c>
       <c r="C18" s="5">
-        <v>4.804166666666667</v>
+        <v>4.8041666666666671</v>
       </c>
       <c r="D18" s="6">
-        <f>C18-B18</f>
-        <v>0.08125</v>
+        <f t="shared" si="1"/>
+        <v>8.1250000000000711E-2</v>
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>44868</v>
       </c>
       <c r="B20" s="5">
-        <v>4.943055555555556</v>
+        <v>4.9430555555555564</v>
       </c>
       <c r="C20" s="5">
         <v>4.990277777777778</v>
       </c>
       <c r="D20" s="6">
         <f>C20-B20</f>
-        <v>0.04722222222222222</v>
+        <v>4.722222222222161E-2</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>44869</v>
       </c>
       <c r="B21" s="5">
-        <v>4.359722222222222</v>
+        <v>4.3597222222222216</v>
       </c>
       <c r="C21" s="5">
-        <v>4.401388888888889</v>
+        <v>4.4013888888888886</v>
       </c>
       <c r="D21" s="8">
         <f>C21-B21</f>
-        <v>0.04166666666666666</v>
+        <v>4.1666666666666963E-2</v>
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>44870</v>
       </c>
@@ -1666,25 +1740,27 @@
       </c>
       <c r="D22" s="5">
         <f>C22-B22</f>
+        <v>-3.9138888888888888</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>44871</v>
       </c>
       <c r="B23" s="5">
-        <v>4.715277777777778</v>
+        <v>4.7152777777777777</v>
       </c>
       <c r="C23" s="10">
         <v>0.8041666666666667</v>
       </c>
       <c r="D23" s="5">
         <f>C23*24-B23</f>
+        <v>14.584722222222222</v>
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>44977</v>
       </c>
@@ -1692,40 +1768,40 @@
         <v>4.75</v>
       </c>
       <c r="C24" s="5">
-        <v>4.820833333333333</v>
+        <v>4.8208333333333329</v>
       </c>
       <c r="D24" s="6">
         <f>C24-B24</f>
-        <v>0.07083333333333333</v>
+        <v>7.083333333333286E-2</v>
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" t="s" s="2">
+      <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>44991</v>
       </c>
       <c r="B26" s="5">
-        <v>4.888888888888889</v>
+        <v>4.8888888888888893</v>
       </c>
       <c r="C26" s="5">
-        <v>4.993055555555555</v>
+        <v>4.9930555555555554</v>
       </c>
       <c r="D26" s="6">
         <f>C26-B26</f>
-        <v>0.1041666666666667</v>
+        <v>0.10416666666666607</v>
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>44994</v>
       </c>
@@ -1737,11 +1813,11 @@
       </c>
       <c r="D27" s="8">
         <f>C27-B27</f>
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333037E-2</v>
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>45004</v>
       </c>
@@ -1749,15 +1825,15 @@
         <v>4.75</v>
       </c>
       <c r="C28" s="5">
-        <v>4.843055555555556</v>
+        <v>4.8430555555555559</v>
       </c>
       <c r="D28" s="6">
         <f>C28-B28</f>
-        <v>0.09305555555555556</v>
+        <v>9.3055555555555891E-2</v>
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>45011</v>
       </c>
@@ -1769,11 +1845,11 @@
       </c>
       <c r="D29" s="6">
         <f>C29-B29</f>
-        <v>0.09166666666666666</v>
+        <v>9.1666666666666785E-2</v>
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>45018</v>
       </c>
@@ -1781,26 +1857,26 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C30" s="5">
-        <v>4.803472222222222</v>
+        <v>4.8034722222222221</v>
       </c>
       <c r="D30" s="6">
         <f>C30-B30</f>
-        <v>0.09513888888888888</v>
+        <v>9.5138888888889106E-2</v>
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="6">
-        <v>0.4673611111111111</v>
-      </c>
-      <c r="E31" t="s" s="2">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>45032</v>
       </c>
@@ -1808,15 +1884,15 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C32" s="5">
-        <v>4.777777777777778</v>
+        <v>4.7777777777777777</v>
       </c>
       <c r="D32" s="6">
-        <f>C32-B32</f>
-        <v>0.06944444444444445</v>
+        <f t="shared" ref="D32:D38" si="2">C32-B32</f>
+        <v>6.9444444444444642E-2</v>
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>45039</v>
       </c>
@@ -1827,28 +1903,28 @@
         <v>4.802083333333333</v>
       </c>
       <c r="D33" s="6">
-        <f>C33-B33</f>
-        <v>0.09375</v>
+        <f t="shared" si="2"/>
+        <v>9.375E-2</v>
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>45046</v>
       </c>
       <c r="B34" s="5">
-        <v>4.715277777777778</v>
+        <v>4.7152777777777777</v>
       </c>
       <c r="C34" s="5">
-        <v>4.815277777777778</v>
+        <v>4.8152777777777782</v>
       </c>
       <c r="D34" s="6">
-        <f>C34-B34</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0.10000000000000053</v>
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>45060</v>
       </c>
@@ -1856,15 +1932,15 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C35" s="5">
-        <v>4.811111111111111</v>
+        <v>4.8111111111111109</v>
       </c>
       <c r="D35" s="6">
-        <f>C35-B35</f>
-        <v>0.1027777777777778</v>
+        <f t="shared" si="2"/>
+        <v>0.10277777777777786</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>45067</v>
       </c>
@@ -1875,69 +1951,69 @@
         <v>4.791666666666667</v>
       </c>
       <c r="D36" s="6">
-        <f>C36-B36</f>
-        <v>0.07291666666666667</v>
+        <f t="shared" si="2"/>
+        <v>7.2916666666666963E-2</v>
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>45084</v>
       </c>
       <c r="B37" s="5">
-        <v>4.752083333333333</v>
+        <v>4.7520833333333332</v>
       </c>
       <c r="C37" s="5">
-        <v>4.807638888888889</v>
+        <v>4.8076388888888886</v>
       </c>
       <c r="D37" s="6">
-        <f>C37-B37</f>
-        <v>0.05555555555555555</v>
+        <f t="shared" si="2"/>
+        <v>5.5555555555555358E-2</v>
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>45096</v>
       </c>
       <c r="B38" s="5">
-        <v>4.715277777777778</v>
+        <v>4.7152777777777777</v>
       </c>
       <c r="C38" s="5">
-        <v>4.786111111111111</v>
+        <v>4.7861111111111114</v>
       </c>
       <c r="D38" s="6">
-        <f>C38-B38</f>
-        <v>0.07083333333333333</v>
+        <f t="shared" si="2"/>
+        <v>7.0833333333333748E-2</v>
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" t="s" s="2">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>45100</v>
       </c>
       <c r="B40" s="5">
-        <v>4.040277777777778</v>
+        <v>4.0402777777777779</v>
       </c>
       <c r="C40" s="5">
-        <v>4.079861111111111</v>
+        <v>4.0798611111111107</v>
       </c>
       <c r="D40" s="7">
-        <f>C40-B40</f>
-        <v>0.03958333333333333</v>
+        <f t="shared" ref="D40:D45" si="3">C40-B40</f>
+        <v>3.958333333333286E-2</v>
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>45108</v>
       </c>
@@ -1945,15 +2021,15 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C41" s="5">
-        <v>4.840277777777778</v>
+        <v>4.8402777777777777</v>
       </c>
       <c r="D41" s="6">
-        <f>C41-B41</f>
-        <v>0.1319444444444444</v>
+        <f t="shared" si="3"/>
+        <v>0.13194444444444464</v>
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>45116</v>
       </c>
@@ -1964,12 +2040,12 @@
         <v>4.8125</v>
       </c>
       <c r="D42" s="8">
-        <f>C42-B42</f>
-        <v>0.08333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333037E-2</v>
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>45138</v>
       </c>
@@ -1977,15 +2053,15 @@
         <v>4.729166666666667</v>
       </c>
       <c r="C43" s="5">
-        <v>4.829861111111111</v>
+        <v>4.8298611111111107</v>
       </c>
       <c r="D43" s="6">
-        <f>C43-B43</f>
-        <v>0.1006944444444444</v>
+        <f t="shared" si="3"/>
+        <v>0.10069444444444375</v>
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>45158</v>
       </c>
@@ -1993,15 +2069,15 @@
         <v>4.71875</v>
       </c>
       <c r="C44" s="5">
-        <v>4.795138888888889</v>
+        <v>4.7951388888888893</v>
       </c>
       <c r="D44" s="6">
-        <f>C44-B44</f>
-        <v>0.0763888888888889</v>
+        <f t="shared" si="3"/>
+        <v>7.6388888888889284E-2</v>
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>45165</v>
       </c>
@@ -2009,26 +2085,26 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C45" s="5">
-        <v>4.774305555555555</v>
+        <v>4.7743055555555554</v>
       </c>
       <c r="D45" s="6">
-        <f>C45-B45</f>
-        <v>0.06597222222222222</v>
+        <f t="shared" si="3"/>
+        <v>6.5972222222222321E-2</v>
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="6">
-        <v>0.4979166666666667</v>
-      </c>
-      <c r="E46" t="s" s="2">
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>45179</v>
       </c>
@@ -2039,12 +2115,12 @@
         <v>4.802083333333333</v>
       </c>
       <c r="D47" s="6">
-        <f>C47-B47</f>
-        <v>0.07291666666666667</v>
+        <f t="shared" ref="D47:D54" si="4">C47-B47</f>
+        <v>7.2916666666666075E-2</v>
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>45186</v>
       </c>
@@ -2052,31 +2128,31 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C48" s="5">
-        <v>4.798611111111111</v>
+        <v>4.7986111111111107</v>
       </c>
       <c r="D48" s="6">
-        <f>C48-B48</f>
-        <v>0.09027777777777778</v>
+        <f t="shared" si="4"/>
+        <v>9.0277777777777679E-2</v>
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>45193</v>
       </c>
       <c r="B49" s="5">
-        <v>4.715277777777778</v>
+        <v>4.7152777777777777</v>
       </c>
       <c r="C49" s="5">
-        <v>4.807638888888889</v>
+        <v>4.8076388888888886</v>
       </c>
       <c r="D49" s="6">
-        <f>C49-B49</f>
-        <v>0.09236111111111112</v>
+        <f t="shared" si="4"/>
+        <v>9.2361111111110894E-2</v>
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>45200</v>
       </c>
@@ -2084,15 +2160,15 @@
         <v>4.71875</v>
       </c>
       <c r="C50" s="5">
-        <v>4.809027777777778</v>
+        <v>4.8090277777777777</v>
       </c>
       <c r="D50" s="6">
-        <f>C50-B50</f>
-        <v>0.09027777777777778</v>
+        <f t="shared" si="4"/>
+        <v>9.0277777777777679E-2</v>
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>45222</v>
       </c>
@@ -2100,15 +2176,15 @@
         <v>4.833333333333333</v>
       </c>
       <c r="C51" s="5">
-        <v>4.936805555555556</v>
+        <v>4.9368055555555559</v>
       </c>
       <c r="D51" s="6">
-        <f>C51-B51</f>
-        <v>0.1034722222222222</v>
+        <f t="shared" si="4"/>
+        <v>0.10347222222222285</v>
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>45224</v>
       </c>
@@ -2119,28 +2195,28 @@
         <v>4.916666666666667</v>
       </c>
       <c r="D52" s="8">
-        <f>C52-B52</f>
-        <v>0.04166666666666666</v>
+        <f t="shared" si="4"/>
+        <v>4.1666666666666963E-2</v>
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>45241</v>
       </c>
       <c r="B53" s="5">
-        <v>4.871527777777778</v>
+        <v>4.8715277777777777</v>
       </c>
       <c r="C53" s="5">
         <v>4.916666666666667</v>
       </c>
       <c r="D53" s="6">
-        <f>C53-B53</f>
-        <v>0.04513888888888889</v>
+        <f t="shared" si="4"/>
+        <v>4.5138888888889284E-2</v>
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>45242</v>
       </c>
@@ -2151,23 +2227,23 @@
         <v>4.791666666666667</v>
       </c>
       <c r="D54" s="8">
-        <f>C54-B54</f>
-        <v>0.08333333333333333</v>
+        <f t="shared" si="4"/>
+        <v>8.3333333333333925E-2</v>
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" t="s" s="2">
+      <c r="D55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>45263</v>
       </c>
@@ -2179,11 +2255,11 @@
       </c>
       <c r="D56" s="6">
         <f>C56-B56</f>
-        <v>0.09375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>45275</v>
       </c>
@@ -2191,15 +2267,15 @@
         <v>4.75</v>
       </c>
       <c r="C57" s="5">
-        <v>4.847222222222222</v>
+        <v>4.8472222222222223</v>
       </c>
       <c r="D57" s="6">
         <f>C57-B57</f>
-        <v>0.09722222222222222</v>
+        <v>9.7222222222222321E-2</v>
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>45305</v>
       </c>
@@ -2207,15 +2283,15 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C58" s="5">
-        <v>4.767361111111111</v>
+        <v>4.7673611111111107</v>
       </c>
       <c r="D58" s="6">
         <f>C58-B58</f>
-        <v>0.05902777777777778</v>
+        <v>5.9027777777777679E-2</v>
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>45312</v>
       </c>
@@ -2227,11 +2303,11 @@
       </c>
       <c r="D59" s="8">
         <f>C59-B59</f>
-        <v>0.04166666666666666</v>
+        <v>4.1666666666666075E-2</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>45312</v>
       </c>
@@ -2239,26 +2315,26 @@
         <v>4.666666666666667</v>
       </c>
       <c r="C60" s="5">
-        <v>4.743055555555555</v>
+        <v>4.7430555555555554</v>
       </c>
       <c r="D60" s="6">
         <f>C60-B60</f>
-        <v>0.0763888888888889</v>
+        <v>7.6388888888888395E-2</v>
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" t="s" s="2">
+      <c r="D61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>45403</v>
       </c>
@@ -2266,15 +2342,15 @@
         <v>4.708333333333333</v>
       </c>
       <c r="C62" s="5">
-        <v>4.801388888888889</v>
+        <v>4.8013888888888889</v>
       </c>
       <c r="D62" s="6">
-        <f>C62-B62</f>
-        <v>0.09305555555555556</v>
+        <f t="shared" ref="D62:D67" si="5">C62-B62</f>
+        <v>9.3055555555555891E-2</v>
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>45410</v>
       </c>
@@ -2285,12 +2361,12 @@
         <v>4.802083333333333</v>
       </c>
       <c r="D63" s="6">
-        <f>C63-B63</f>
-        <v>0.09375</v>
+        <f t="shared" si="5"/>
+        <v>9.375E-2</v>
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>45414</v>
       </c>
@@ -2301,12 +2377,12 @@
         <v>4.739583333333333</v>
       </c>
       <c r="D64" s="7">
-        <f>C64-B64</f>
-        <v>0.02083333333333333</v>
+        <f t="shared" si="5"/>
+        <v>2.0833333333333037E-2</v>
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>45419</v>
       </c>
@@ -2314,15 +2390,15 @@
         <v>45419.729166666664</v>
       </c>
       <c r="C65" s="5">
-        <v>45419.76875</v>
+        <v>45419.768750000003</v>
       </c>
       <c r="D65" s="7">
-        <f>C65-B65</f>
-        <v>0.03958333333885228</v>
+        <f t="shared" si="5"/>
+        <v>3.9583333338669036E-2</v>
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>45421</v>
       </c>
@@ -2333,12 +2409,12 @@
         <v>45421.78125</v>
       </c>
       <c r="D66" s="7">
-        <f>C66-B66</f>
-        <v>0.06111111111111111</v>
+        <f t="shared" si="5"/>
+        <v>6.1111111113859806E-2</v>
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
         <v>45424</v>
       </c>
@@ -2349,23 +2425,23 @@
         <v>45424.747916666667</v>
       </c>
       <c r="D67" s="14">
-        <f>C67-B67</f>
-        <v>0.03958333333333333</v>
+        <f t="shared" si="5"/>
+        <v>3.9583333331393078E-2</v>
       </c>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
-      <c r="D68" t="s" s="17">
+      <c r="D68" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E68" t="s" s="17">
+      <c r="E68" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" ht="16" customHeight="1">
+    <row r="69" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="18">
         <v>45463</v>
       </c>
@@ -2373,12 +2449,12 @@
         <v>1.875</v>
       </c>
       <c r="C69" s="19">
-        <v>1.956944444444444</v>
+        <v>1.9569444444444439</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="18">
         <v>45468</v>
       </c>
@@ -2386,12 +2462,12 @@
         <v>1.875</v>
       </c>
       <c r="C70" s="19">
-        <v>1.922222222222222</v>
+        <v>1.9222222222222221</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="18">
         <v>45490</v>
       </c>
@@ -2404,7 +2480,7 @@
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="18">
         <v>45498</v>
       </c>
@@ -2417,7 +2493,7 @@
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="18">
         <v>45504</v>
       </c>
@@ -2425,12 +2501,12 @@
         <v>1.833333333333333</v>
       </c>
       <c r="C73" s="19">
-        <v>1.907638888888889</v>
+        <v>1.9076388888888891</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18">
         <v>45511</v>
       </c>
@@ -2438,17 +2514,17 @@
         <v>45512.627083333333</v>
       </c>
       <c r="C74" s="19">
-        <v>45512.68125</v>
+        <v>45512.681250000001</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="18">
         <v>45512</v>
       </c>
       <c r="B75" s="19">
-        <v>45512.420833333330</v>
+        <v>45512.42083333333</v>
       </c>
       <c r="C75" s="19">
         <v>45512.526388888888</v>
@@ -2456,63 +2532,69 @@
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="18">
+        <v>45512</v>
+      </c>
+      <c r="B76" s="19">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C76" s="19">
+        <v>0.99583333333333324</v>
+      </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -2520,8 +2602,9 @@
       <c r="E84" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A7BFA-46BC-4C41-8A69-B8A2A5C49DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225FD39D-773B-0946-ACEA-84906CB43245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31820" yWindow="2600" windowWidth="24880" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="980" windowWidth="24880" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="L87" sqref="L86:L87"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2546,9 +2546,15 @@
       <c r="E76" s="16"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="A77" s="18">
+        <v>45518</v>
+      </c>
+      <c r="B77" s="19">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="C77" s="19">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
     </row>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225FD39D-773B-0946-ACEA-84906CB43245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4DDB58-C9E7-6A4C-A9A1-CB675D063310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="980" windowWidth="24880" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4DDB58-C9E7-6A4C-A9A1-CB675D063310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9334BBC9-848F-4346-90A4-E993BC9AB1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="980" windowWidth="24880" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="700" windowWidth="24880" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -110,6 +110,10 @@
     <t>8.35 hour</t>
   </si>
   <si>
+    <t>17.45 hour</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -129,6 +133,31 @@
       </rPr>
       <t>元</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (paid)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>26175</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -140,7 +169,7 @@
     <numFmt numFmtId="177" formatCode="[m]&quot;m&quot;"/>
     <numFmt numFmtId="178" formatCode="[h]&quot;h&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -170,6 +199,13 @@
       <sz val="9"/>
       <name val="Wawati TC"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -244,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -265,6 +301,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1397,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2437,8 +2476,8 @@
       <c r="D68" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>16</v>
+      <c r="E68" s="22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -2451,7 +2490,10 @@
       <c r="C69" s="19">
         <v>1.9569444444444439</v>
       </c>
-      <c r="D69" s="16"/>
+      <c r="D69" s="19">
+        <f>C69-B69</f>
+        <v>8.1944444444443931E-2</v>
+      </c>
       <c r="E69" s="16"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2464,7 +2506,10 @@
       <c r="C70" s="19">
         <v>1.9222222222222221</v>
       </c>
-      <c r="D70" s="16"/>
+      <c r="D70" s="19">
+        <f>C70-B70</f>
+        <v>4.7222222222222054E-2</v>
+      </c>
       <c r="E70" s="16"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2477,7 +2522,10 @@
       <c r="C71" s="19">
         <v>1.848611111111111</v>
       </c>
-      <c r="D71" s="16"/>
+      <c r="D71" s="19">
+        <f t="shared" ref="D71:D79" si="6">C71-B71</f>
+        <v>1.5277777777777946E-2</v>
+      </c>
       <c r="E71" s="16"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2490,7 +2538,10 @@
       <c r="C72" s="19">
         <v>1.895833333333333</v>
       </c>
-      <c r="D72" s="16"/>
+      <c r="D72" s="19">
+        <f t="shared" si="6"/>
+        <v>4.1666666666666075E-2</v>
+      </c>
       <c r="E72" s="16"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2503,7 +2554,10 @@
       <c r="C73" s="19">
         <v>1.9076388888888891</v>
       </c>
-      <c r="D73" s="16"/>
+      <c r="D73" s="19">
+        <f t="shared" si="6"/>
+        <v>7.4305555555556069E-2</v>
+      </c>
       <c r="E73" s="16"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2516,7 +2570,10 @@
       <c r="C74" s="19">
         <v>45512.681250000001</v>
       </c>
-      <c r="D74" s="16"/>
+      <c r="D74" s="19">
+        <f t="shared" si="6"/>
+        <v>5.4166666668606922E-2</v>
+      </c>
       <c r="E74" s="16"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2529,7 +2586,10 @@
       <c r="C75" s="19">
         <v>45512.526388888888</v>
       </c>
-      <c r="D75" s="16"/>
+      <c r="D75" s="19">
+        <f t="shared" si="6"/>
+        <v>0.1055555555576575</v>
+      </c>
       <c r="E75" s="16"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2542,7 +2602,10 @@
       <c r="C76" s="19">
         <v>0.99583333333333324</v>
       </c>
-      <c r="D76" s="16"/>
+      <c r="D76" s="19">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
       <c r="E76" s="16"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2555,29 +2618,54 @@
       <c r="C77" s="19">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D77" s="16"/>
+      <c r="D77" s="19">
+        <f t="shared" si="6"/>
+        <v>7.638888888888884E-2</v>
+      </c>
       <c r="E77" s="16"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
+      <c r="A78" s="18">
+        <v>45523</v>
+      </c>
+      <c r="B78" s="19">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C78" s="19">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="D78" s="19">
+        <f t="shared" si="6"/>
+        <v>4.3055555555555625E-2</v>
+      </c>
       <c r="E78" s="16"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
+      <c r="A79" s="18">
+        <v>45526</v>
+      </c>
+      <c r="B79" s="19">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C79" s="19">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="D79" s="19">
+        <f t="shared" si="6"/>
+        <v>8.7500000000000022E-2</v>
+      </c>
       <c r="E79" s="16"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
+      <c r="D80" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16"/>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9334BBC9-848F-4346-90A4-E993BC9AB1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280EF3D8-3D44-1141-A0F0-8A87F10E2F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="700" windowWidth="24880" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,6 +138,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (paid)</t>
     </r>
@@ -156,6 +157,15 @@
         <charset val="136"/>
       </rPr>
       <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (paid)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -223,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -276,11 +286,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -304,6 +342,8 @@
     <xf numFmtId="20" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1434,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2668,9 +2708,15 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="A81" s="18">
+        <v>45531</v>
+      </c>
+      <c r="B81" s="19">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C81" s="19">
+        <v>0.93402777777777779</v>
+      </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
     </row>
@@ -2689,11 +2735,81 @@
       <c r="E83" s="16"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280EF3D8-3D44-1141-A0F0-8A87F10E2F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3CB41B-7AA1-5947-9782-1EAA4D022600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="700" windowWidth="24880" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26120" yWindow="2560" windowWidth="24460" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,10 @@
       </rPr>
       <t xml:space="preserve"> (paid)</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>texting</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1477,7 +1481,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2721,11 +2725,17 @@
       <c r="E81" s="16"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="16"/>
+      <c r="A82" s="18">
+        <v>45532</v>
+      </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
+      <c r="D82" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16"/>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3CB41B-7AA1-5947-9782-1EAA4D022600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9237196A-C7B0-4543-9204-08F340272DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26120" yWindow="2560" windowWidth="24460" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1760" windowWidth="24460" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1481,7 +1481,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2738,9 +2738,15 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
+      <c r="A83" s="18">
+        <v>45533</v>
+      </c>
+      <c r="B83" s="19">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C83" s="19">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
     </row>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9237196A-C7B0-4543-9204-08F340272DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDA3EB8-D20F-7444-9455-7A01B3CF9760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1760" windowWidth="24460" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="700" windowWidth="24460" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -348,6 +348,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1481,7 +1484,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2747,14 +2750,24 @@
       <c r="C83" s="19">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D83" s="16"/>
+      <c r="D83" s="16">
+        <v>3</v>
+      </c>
       <c r="E83" s="16"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="A84" s="25">
+        <v>45536</v>
+      </c>
+      <c r="B84" s="26">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C84" s="27">
+        <v>0.9472222222222223</v>
+      </c>
+      <c r="D84" s="26">
+        <v>5.1388888888888894E-2</v>
+      </c>
       <c r="E84" s="23"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDA3EB8-D20F-7444-9455-7A01B3CF9760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1DC984-95A4-774A-9634-ABC98A2E73F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="700" windowWidth="24460" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -351,6 +351,8 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1484,7 +1486,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2771,10 +2773,18 @@
       <c r="E84" s="23"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+      <c r="A85" s="28">
+        <v>45550</v>
+      </c>
+      <c r="B85" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="C85" s="29">
+        <v>0.92847222222222225</v>
+      </c>
+      <c r="D85" s="29">
+        <v>5.347222222222222E-2</v>
+      </c>
       <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1DC984-95A4-774A-9634-ABC98A2E73F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071270BA-A704-4746-931A-AED01DBFE84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="700" windowWidth="24460" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2788,10 +2788,18 @@
       <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
+      <c r="A86" s="28">
+        <v>45562</v>
+      </c>
+      <c r="B86" s="29">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="C86" s="29">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D86" s="24">
+        <v>1</v>
+      </c>
       <c r="E86" s="24"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071270BA-A704-4746-931A-AED01DBFE84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263B31B-D025-BA47-A5E3-671FC255D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="700" windowWidth="24460" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2803,9 +2803,15 @@
       <c r="E86" s="24"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
+      <c r="A87" s="28">
+        <v>45576</v>
+      </c>
+      <c r="B87" s="29">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C87" s="29">
+        <v>0.96180555555555547</v>
+      </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
     </row>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263B31B-D025-BA47-A5E3-671FC255D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CC2CE9-9D30-CB46-8B6A-AD762DA5ACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="700" windowWidth="24460" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2812,14 +2812,24 @@
       <c r="C87" s="29">
         <v>0.96180555555555547</v>
       </c>
-      <c r="D87" s="24"/>
+      <c r="D87" s="29">
+        <v>5.9027777777777783E-2</v>
+      </c>
       <c r="E87" s="24"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="A88" s="28">
+        <v>45595</v>
+      </c>
+      <c r="B88" s="29">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="C88" s="29">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="D88" s="29">
+        <v>8.1944444444444445E-2</v>
+      </c>
       <c r="E88" s="24"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy\repo\teaching\Fortune500_SDG_Analysis\misc\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CC2CE9-9D30-CB46-8B6A-AD762DA5ACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACBA6A1-42EA-4082-B8A3-69E51DA86D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="700" windowWidth="24460" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     <numFmt numFmtId="177" formatCode="[m]&quot;m&quot;"/>
     <numFmt numFmtId="178" formatCode="[h]&quot;h&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -355,7 +355,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1486,16 +1486,16 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>44811</v>
       </c>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>44815</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>44821</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>44824</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>44828</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>44829</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>44836</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>44836</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>44842</v>
       </c>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>44843</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>44856</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>44857</v>
       </c>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="4">
         <v>44863</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="4">
         <v>44863</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="4">
         <v>44863</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="4">
         <v>44868</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="4">
         <v>44869</v>
       </c>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>44870</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="4">
         <v>44871</v>
       </c>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="4">
         <v>44977</v>
       </c>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="4">
         <v>44991</v>
       </c>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="4">
         <v>44994</v>
       </c>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="4">
         <v>45004</v>
       </c>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="4">
         <v>45011</v>
       </c>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="4">
         <v>45018</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1964,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="4">
         <v>45032</v>
       </c>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="4">
         <v>45039</v>
       </c>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="4">
         <v>45046</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="4">
         <v>45060</v>
       </c>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="4">
         <v>45067</v>
       </c>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="4">
         <v>45084</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="11">
         <v>45096</v>
       </c>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="4">
         <v>45100</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="4">
         <v>45108</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="4">
         <v>45116</v>
       </c>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="4">
         <v>45138</v>
       </c>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="4">
         <v>45158</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="4">
         <v>45165</v>
       </c>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2192,7 +2192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="4">
         <v>45179</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="4">
         <v>45186</v>
       </c>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="4">
         <v>45193</v>
       </c>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="4">
         <v>45200</v>
       </c>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="4">
         <v>45222</v>
       </c>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="4">
         <v>45224</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="4">
         <v>45241</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="4">
         <v>45242</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2331,7 +2331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="4">
         <v>45263</v>
       </c>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="4">
         <v>45275</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="4">
         <v>45305</v>
       </c>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="4">
         <v>45312</v>
       </c>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="4">
         <v>45312</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2422,7 +2422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="A62" s="4">
         <v>45403</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="4">
         <v>45410</v>
       </c>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="A64" s="4">
         <v>45414</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
       <c r="A65" s="4">
         <v>45419</v>
       </c>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
       <c r="A66" s="4">
         <v>45421</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
       <c r="A67" s="12">
         <v>45424</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -2529,7 +2529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="16.05" customHeight="1">
       <c r="A69" s="18">
         <v>45463</v>
       </c>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
       <c r="A70" s="18">
         <v>45468</v>
       </c>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
       <c r="A71" s="18">
         <v>45490</v>
       </c>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
       <c r="A72" s="18">
         <v>45498</v>
       </c>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="18">
         <v>45504</v>
       </c>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
       <c r="A74" s="18">
         <v>45511</v>
       </c>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
       <c r="A75" s="18">
         <v>45512</v>
       </c>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="18">
         <v>45512</v>
       </c>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
       <c r="A77" s="18">
         <v>45518</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
       <c r="A78" s="18">
         <v>45523</v>
       </c>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
       <c r="A79" s="18">
         <v>45526</v>
       </c>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -2716,7 +2716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1">
       <c r="A81" s="18">
         <v>45531</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
       <c r="A82" s="18">
         <v>45532</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="18">
         <v>45533</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1">
       <c r="A84" s="25">
         <v>45536</v>
       </c>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="E84" s="23"/>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
       <c r="A85" s="28">
         <v>45550</v>
       </c>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E85" s="24"/>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
       <c r="A86" s="28">
         <v>45562</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="E86" s="24"/>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1">
       <c r="A87" s="28">
         <v>45576</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="E87" s="24"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1">
       <c r="A88" s="28">
         <v>45595</v>
       </c>
@@ -2832,42 +2832,51 @@
       </c>
       <c r="E88" s="24"/>
     </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A89" s="28">
+        <v>45606</v>
+      </c>
+      <c r="B89" s="29">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C89" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="D89" s="29">
+        <f>C89-B89</f>
+        <v>4.166666666666663E-2</v>
+      </c>
       <c r="E89" s="24"/>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1">
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1">
       <c r="A92" s="24"/>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1">
       <c r="A93" s="24"/>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1">
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -2877,7 +2886,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy\repo\teaching\Fortune500_SDG_Analysis\misc\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACBA6A1-42EA-4082-B8A3-69E51DA86D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B1049-7300-5540-8217-2FB6786B5E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="700" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,11 +179,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="[h]&quot;h&quot;\ m&quot;m&quot;"/>
-    <numFmt numFmtId="177" formatCode="[m]&quot;m&quot;"/>
-    <numFmt numFmtId="178" formatCode="[h]&quot;h&quot;"/>
+    <numFmt numFmtId="164" formatCode="[h]&quot;h&quot;\ m&quot;m&quot;"/>
+    <numFmt numFmtId="165" formatCode="[m]&quot;m&quot;"/>
+    <numFmt numFmtId="166" formatCode="[h]&quot;h&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -329,15 +329,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1486,16 +1486,16 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>44811</v>
       </c>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>44815</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>44821</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>44824</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>44828</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>44829</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>44836</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>44836</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>44842</v>
       </c>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>44843</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>44856</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>44857</v>
       </c>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>44863</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>44863</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>44863</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>44868</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>44869</v>
       </c>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>44870</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>44871</v>
       </c>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>44977</v>
       </c>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>44991</v>
       </c>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>44994</v>
       </c>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>45004</v>
       </c>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>45011</v>
       </c>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>45018</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1964,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>45032</v>
       </c>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>45039</v>
       </c>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>45046</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>45060</v>
       </c>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>45067</v>
       </c>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>45084</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>45096</v>
       </c>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>45100</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>45108</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>45116</v>
       </c>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>45138</v>
       </c>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>45158</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>45165</v>
       </c>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2192,7 +2192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>45179</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>45186</v>
       </c>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>45193</v>
       </c>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>45200</v>
       </c>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>45222</v>
       </c>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>45224</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>45241</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>45242</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2331,7 +2331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>45263</v>
       </c>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>45275</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>45305</v>
       </c>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>45312</v>
       </c>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>45312</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2422,7 +2422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>45403</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>45410</v>
       </c>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>45414</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>45419</v>
       </c>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>45421</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
         <v>45424</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -2529,7 +2529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.05" customHeight="1">
+    <row r="69" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="18">
         <v>45463</v>
       </c>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="18">
         <v>45468</v>
       </c>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="18">
         <v>45490</v>
       </c>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="18">
         <v>45498</v>
       </c>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="18">
         <v>45504</v>
       </c>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18">
         <v>45511</v>
       </c>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="18">
         <v>45512</v>
       </c>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="18">
         <v>45512</v>
       </c>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="18">
         <v>45518</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="18">
         <v>45523</v>
       </c>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="18">
         <v>45526</v>
       </c>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -2716,7 +2716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18">
         <v>45531</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="18">
         <v>45532</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="18">
         <v>45533</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="25">
         <v>45536</v>
       </c>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="E84" s="23"/>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="28">
         <v>45550</v>
       </c>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E85" s="24"/>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="28">
         <v>45562</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="E86" s="24"/>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="28">
         <v>45576</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="E87" s="24"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="28">
         <v>45595</v>
       </c>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E88" s="24"/>
     </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="28">
         <v>45606</v>
       </c>
@@ -2848,35 +2848,43 @@
       </c>
       <c r="E89" s="24"/>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="28">
+        <v>45636</v>
+      </c>
+      <c r="B90" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C90" s="29">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D90" s="29">
+        <v>3.4722222222222224E-2</v>
+      </c>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="24"/>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="24"/>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B1049-7300-5540-8217-2FB6786B5E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0E08C6-B39F-E242-A1A3-0274C315C799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="700" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="700" windowWidth="25400" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -172,6 +172,12 @@
   <si>
     <t>texting</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.4 hour</t>
+  </si>
+  <si>
+    <t>20100元</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -353,6 +359,7 @@
     <xf numFmtId="20" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1485,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2726,7 +2733,9 @@
       <c r="C81" s="19">
         <v>0.93402777777777779</v>
       </c>
-      <c r="D81" s="16"/>
+      <c r="D81" s="19">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="E81" s="16"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2867,8 +2876,12 @@
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
+      <c r="D91" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="24"/>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0E08C6-B39F-E242-A1A3-0274C315C799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C886242F-0AA9-8B43-8485-6CDADA8BE25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="700" windowWidth="25400" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36200" yWindow="3440" windowWidth="35360" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
     <t>13.4 hour</t>
   </si>
   <si>
-    <t>20100元</t>
+    <t>20100元 (paid)</t>
   </si>
 </sst>
 </file>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2884,10 +2884,18 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="A92" s="28">
+        <v>45647</v>
+      </c>
+      <c r="B92" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C92" s="29">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D92" s="29">
+        <v>9.375E-2</v>
+      </c>
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C886242F-0AA9-8B43-8485-6CDADA8BE25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8622A-F70F-AE4E-B834-39EC92BFA5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36200" yWindow="3440" windowWidth="35360" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8600" yWindow="700" windowWidth="35360" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1490,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2899,10 +2899,18 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
+      <c r="A93" s="28">
+        <v>45666</v>
+      </c>
+      <c r="B93" s="29">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="C93" s="29">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="D93" s="29">
+        <v>5.9722222222222225E-2</v>
+      </c>
       <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2911,6 +2919,41 @@
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8622A-F70F-AE4E-B834-39EC92BFA5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F1D72-B7C8-3B4B-B518-0FB24BF1A780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="700" windowWidth="35360" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2914,9 +2914,15 @@
       <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
+      <c r="A94" s="28">
+        <v>45800</v>
+      </c>
+      <c r="B94" s="29">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="C94" s="29">
+        <v>0.96597222222222223</v>
+      </c>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
     </row>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F1D72-B7C8-3B4B-B518-0FB24BF1A780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A38B78-CD9D-E14B-8089-03EDAD0AF42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="760" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>20100元 (paid)</t>
+  </si>
+  <si>
+    <t>24mins</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1496,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2927,10 +2930,14 @@
       <c r="E94" s="24"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="24"/>
+      <c r="A95" s="28">
+        <v>45809</v>
+      </c>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
+      <c r="D95" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="E95" s="24"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A38B78-CD9D-E14B-8089-03EDAD0AF42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3186A26E-144A-BB4F-AD54-52A5CE9DE737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="760" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2941,9 +2941,15 @@
       <c r="E95" s="24"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
+      <c r="A96" s="28">
+        <v>45821</v>
+      </c>
+      <c r="B96" s="29">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C96" s="29">
+        <v>0.92013888888888884</v>
+      </c>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
     </row>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3186A26E-144A-BB4F-AD54-52A5CE9DE737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A5EA25-6A4C-DB4A-A15F-6A4601126CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32700" yWindow="3400" windowWidth="23520" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>24mins</t>
+  </si>
+  <si>
+    <t>35mins</t>
+  </si>
+  <si>
+    <t>49mins</t>
   </si>
 </sst>
 </file>
@@ -1493,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2950,14 +2956,24 @@
       <c r="C96" s="29">
         <v>0.92013888888888884</v>
       </c>
-      <c r="D96" s="24"/>
+      <c r="D96" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="E96" s="24"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
+      <c r="A97" s="28">
+        <v>45824</v>
+      </c>
+      <c r="B97" s="29">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C97" s="29">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="E97" s="24"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2973,6 +2989,34 @@
       <c r="C99" s="24"/>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A5EA25-6A4C-DB4A-A15F-6A4601126CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26210BD8-32A2-554A-8E9D-C067DB4149E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32700" yWindow="3400" windowWidth="23520" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2977,10 +2977,18 @@
       <c r="E97" s="24"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
+      <c r="A98" s="28">
+        <v>45853</v>
+      </c>
+      <c r="B98" s="29">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C98" s="29">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="D98" s="29">
+        <v>6.5277777777777782E-2</v>
+      </c>
       <c r="E98" s="24"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26210BD8-32A2-554A-8E9D-C067DB4149E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7E7158-63A2-5541-9BEC-1E090F2E0825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32700" yWindow="3400" windowWidth="23520" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2992,10 +2992,18 @@
       <c r="E98" s="24"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
+      <c r="A99" s="28">
+        <v>45888</v>
+      </c>
+      <c r="B99" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="C99" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D99" s="24">
+        <v>1</v>
+      </c>
       <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7E7158-63A2-5541-9BEC-1E090F2E0825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B489AB57-DBD5-2D4C-8080-B90B7D5C1EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32700" yWindow="3400" windowWidth="23520" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34740" yWindow="2120" windowWidth="28420" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>49mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6 hour </t>
+  </si>
+  <si>
+    <t>$530 (paid)</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1508,7 @@
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2932,7 +2938,9 @@
       <c r="C94" s="29">
         <v>0.96597222222222223</v>
       </c>
-      <c r="D94" s="24"/>
+      <c r="D94" s="29">
+        <v>6.458333333333334E-2</v>
+      </c>
       <c r="E94" s="24"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3007,18 +3015,30 @@
       <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="A100" s="28">
+        <v>45893</v>
+      </c>
+      <c r="B100" s="29">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="C100" s="29">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D100" s="24">
+        <v>1</v>
+      </c>
       <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="24"/>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
+      <c r="D101" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="24"/>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bc3139/repo/work/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B489AB57-DBD5-2D4C-8080-B90B7D5C1EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CC9D1A-9E8F-874C-9BD3-79B98C2000CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34740" yWindow="2120" windowWidth="28420" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -375,6 +375,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1508,7 +1509,7 @@
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3041,16 +3042,28 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
+      <c r="A102" s="28">
+        <v>45895</v>
+      </c>
+      <c r="B102" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="C102" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="D102" s="31"/>
       <c r="E102" s="24"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
+      <c r="A103" s="28">
+        <v>45897</v>
+      </c>
+      <c r="B103" s="29">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C103" s="29">
+        <v>0.625</v>
+      </c>
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
     </row>

--- a/misc/record/Time and Payment.xlsx
+++ b/misc/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bc3139/repo/work/Fortune500_SDG_Analysis/misc/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/misc/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CC9D1A-9E8F-874C-9BD3-79B98C2000CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F22785-AE83-B842-9735-916B3CB1CDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34740" yWindow="2120" windowWidth="28420" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1506,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3067,6 +3067,54 @@
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
     </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="28">
+        <v>45898</v>
+      </c>
+      <c r="B104" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="C104" s="29">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
